--- a/Two Slit/Two Slit delete.xlsx
+++ b/Two Slit/Two Slit delete.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="12435" windowHeight="3660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="12435" windowHeight="3660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5-25-2012" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Intensity" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Trial</t>
   </si>
@@ -180,18 +181,12 @@
     <t>Fit</t>
   </si>
   <si>
-    <t>One slit</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
     <t>Bulb</t>
   </si>
   <si>
-    <t>Two Slit</t>
-  </si>
-  <si>
     <t>Witdh</t>
   </si>
   <si>
@@ -228,18 +223,92 @@
     <t>position microns blocker to open on slit</t>
   </si>
   <si>
-    <t>=</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Center of Graph</t>
+  </si>
+  <si>
+    <t>atan(x_0/L)</t>
+  </si>
+  <si>
+    <t>One slit Prediction</t>
+  </si>
+  <si>
+    <t>Predicted Maximum</t>
+  </si>
+  <si>
+    <t>microns</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Fit Intensity</t>
+  </si>
+  <si>
+    <t>Predicted Max</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>Single Slit</t>
+  </si>
+  <si>
+    <t>Double Slit</t>
+  </si>
+  <si>
+    <t>Precited Min</t>
+  </si>
+  <si>
+    <t>Double Slit Prediction</t>
+  </si>
+  <si>
+    <t>Predicted Max (*)</t>
+  </si>
+  <si>
+    <t>*This took over two hours to compute</t>
+  </si>
+  <si>
+    <t>The reduced signfig represent the increase uncertaincy in control break the firt manually</t>
+  </si>
+  <si>
+    <t>^regression did not exit properly</t>
+  </si>
+  <si>
+    <t>Predicted max</t>
+  </si>
+  <si>
+    <t>^predicted by alpha</t>
+  </si>
+  <si>
+    <t>&lt;--- These are what we predict under IDEAL conditions (Things like ~4% lose from the slit, waves add exactly like vectors, uncertaincy about L, and other things cause measure value to be different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ actually there is an small error in using geometric optics </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0."/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +337,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -283,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -306,11 +389,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,11 +507,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3303,27 +3485,1194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="2" spans="1:14">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>4.9474299999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="34">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>3.3142983084356002E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.214</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>0.22292000000000001</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H5">
+        <v>82</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>7.45484040244088E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>450</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>0.513679</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H6">
+        <v>179.1</v>
+      </c>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <v>-5.1754964038234E-3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>0.89203500000000002</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.128</v>
+      </c>
+      <c r="H7">
+        <v>213.2</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
+        <v>6.1334775619396901E-3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1.175</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>1.2410099999999999</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H8">
+        <v>266</v>
+      </c>
+      <c r="J8">
+        <v>90</v>
+      </c>
+      <c r="K8">
+        <v>5.0359622400747803E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1.42</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9">
+        <v>1.4524300000000001</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.115</v>
+      </c>
+      <c r="H9">
+        <v>306</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0.122411673397923</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1.48</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>1.4715</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="34">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="H10">
+        <v>357</v>
+      </c>
+      <c r="J10">
+        <v>110</v>
+      </c>
+      <c r="K10">
+        <v>0.210892542454161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1.337</v>
+      </c>
+      <c r="C11">
+        <v>450</v>
+      </c>
+      <c r="D11">
+        <v>1.3055099999999999</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>399.5</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>0.30437539702023197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1.034</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>1.0105599999999999</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="34">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="H12">
+        <v>447.8</v>
+      </c>
+      <c r="J12">
+        <v>130</v>
+      </c>
+      <c r="K12">
+        <v>0.39143340454690601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="35">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C13">
+        <v>550</v>
+      </c>
+      <c r="D13">
+        <v>0.66724399999999995</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0.153</v>
+      </c>
+      <c r="H13">
+        <v>493</v>
+      </c>
+      <c r="J13">
+        <v>140</v>
+      </c>
+      <c r="K13">
+        <v>0.46063973248495099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C14">
+        <v>600</v>
+      </c>
+      <c r="D14">
+        <v>0.354547</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="34">
+        <v>3.89</v>
+      </c>
+      <c r="H14">
+        <v>537</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>0.50056754828513705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="35">
+        <v>0.111</v>
+      </c>
+      <c r="C15">
+        <v>650</v>
+      </c>
+      <c r="D15">
+        <v>0.128526</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H15">
+        <v>586.4</v>
+      </c>
+      <c r="J15">
+        <v>160</v>
+      </c>
+      <c r="K15">
+        <v>0.49979001939823298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16">
+        <v>700</v>
+      </c>
+      <c r="D16">
+        <v>1.02237E-2</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="34">
+        <v>1.853</v>
+      </c>
+      <c r="H16">
+        <v>627.29999999999995</v>
+      </c>
+      <c r="J16">
+        <v>170</v>
+      </c>
+      <c r="K16">
+        <v>0.44688031327500899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
+        <v>750</v>
+      </c>
+      <c r="D17">
+        <v>-1.50514E-2</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H17">
+        <v>681</v>
+      </c>
+      <c r="J17">
+        <v>180</v>
+      </c>
+      <c r="K17">
+        <v>0.33042608398317402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C18">
+        <v>800</v>
+      </c>
+      <c r="D18">
+        <v>1.27736E-2</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H18">
+        <v>709.2</v>
+      </c>
+      <c r="J18">
+        <v>190</v>
+      </c>
+      <c r="K18">
+        <v>0.164691729176315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="C19">
+        <v>850</v>
+      </c>
+      <c r="D19">
+        <v>4.7796100000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19">
+        <v>811.4</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19">
+        <v>4.2506941991820001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="C20">
+        <v>800</v>
+      </c>
+      <c r="D20">
+        <v>6.1440500000000002E-2</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="34">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>839.5</v>
+      </c>
+      <c r="J20">
+        <v>210</v>
+      </c>
+      <c r="K20">
+        <v>7.1676305023922499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C21">
+        <v>950</v>
+      </c>
+      <c r="D21">
+        <v>6.2783099999999994E-2</v>
+      </c>
+      <c r="J21">
+        <v>220</v>
+      </c>
+      <c r="K21">
+        <v>0.34661164707645498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>0.106598</v>
+      </c>
+      <c r="J22">
+        <v>230</v>
+      </c>
+      <c r="K22">
+        <v>0.81333319399491799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23">
+        <v>240</v>
+      </c>
+      <c r="K23">
+        <v>1.3254803384876399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>383</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>250</v>
+      </c>
+      <c r="K24">
+        <v>1.7352967700387201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>1.48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>260</v>
+      </c>
+      <c r="K25">
+        <v>1.8950261781322399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26">
+        <v>270</v>
+      </c>
+      <c r="K26">
+        <v>1.6618120220413699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>750</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>280</v>
+      </c>
+      <c r="K27">
+        <v>1.08327631158912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <v>290</v>
+      </c>
+      <c r="K28">
+        <v>0.45447943094620702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="J29">
+        <v>300</v>
+      </c>
+      <c r="K29">
+        <v>8.7018487321469704E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30">
+        <v>310</v>
+      </c>
+      <c r="K30">
+        <v>0.285519967249384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31">
+        <v>320</v>
+      </c>
+      <c r="K31">
+        <v>1.08362747854942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32">
+        <v>330</v>
+      </c>
+      <c r="K32">
+        <v>2.1629682849868002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <v>340</v>
+      </c>
+      <c r="K33">
+        <v>3.18164380555086</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34">
+        <v>350</v>
+      </c>
+      <c r="K34">
+        <v>3.7977554592309199</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35">
+        <v>360</v>
+      </c>
+      <c r="K35">
+        <v>3.6732226018500498</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36">
+        <v>370</v>
+      </c>
+      <c r="K36">
+        <v>2.7653597761073598</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37">
+        <v>380</v>
+      </c>
+      <c r="K37">
+        <v>1.5321968701917701</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38">
+        <v>390</v>
+      </c>
+      <c r="K38">
+        <v>0.48026571058731299</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39">
+        <v>400</v>
+      </c>
+      <c r="K39">
+        <v>0.116077205096975</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40">
+        <v>410</v>
+      </c>
+      <c r="K40">
+        <v>0.75249803122881997</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41">
+        <v>420</v>
+      </c>
+      <c r="K41">
+        <v>2.03544455921064</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42">
+        <v>430</v>
+      </c>
+      <c r="K42">
+        <v>3.4673519260852901</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43">
+        <v>440</v>
+      </c>
+      <c r="K43">
+        <v>4.5506552688956301</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44">
+        <v>450</v>
+      </c>
+      <c r="K44">
+        <v>4.7896236144614397</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45">
+        <v>460</v>
+      </c>
+      <c r="K45">
+        <v>3.9939313286620601</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46">
+        <v>470</v>
+      </c>
+      <c r="K46">
+        <v>2.6176535372930698</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47">
+        <v>480</v>
+      </c>
+      <c r="K47">
+        <v>1.1965967768777701</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48">
+        <v>490</v>
+      </c>
+      <c r="K48">
+        <v>0.26656758393945301</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <v>0.30450307184172998</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50">
+        <v>510</v>
+      </c>
+      <c r="K50">
+        <v>1.1795950845356999</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51">
+        <v>520</v>
+      </c>
+      <c r="K51">
+        <v>2.4024983669036302</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52">
+        <v>530</v>
+      </c>
+      <c r="K52">
+        <v>3.4792336276023899</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53">
+        <v>540</v>
+      </c>
+      <c r="K53">
+        <v>3.9196257150613198</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54">
+        <v>550</v>
+      </c>
+      <c r="K54">
+        <v>3.5278271808445201</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55">
+        <v>560</v>
+      </c>
+      <c r="K55">
+        <v>2.60689646296911</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56">
+        <v>570</v>
+      </c>
+      <c r="K56">
+        <v>1.50821866396884</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57">
+        <v>580</v>
+      </c>
+      <c r="K57">
+        <v>0.58317888637746795</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58">
+        <v>590</v>
+      </c>
+      <c r="K58">
+        <v>0.178119742525332</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59">
+        <v>600</v>
+      </c>
+      <c r="K59">
+        <v>0.38768818833507401</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60">
+        <v>610</v>
+      </c>
+      <c r="K60">
+        <v>0.94313295227270499</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61">
+        <v>620</v>
+      </c>
+      <c r="K61">
+        <v>1.54737074651738</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62">
+        <v>630</v>
+      </c>
+      <c r="K62">
+        <v>1.90475724735677</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63">
+        <v>640</v>
+      </c>
+      <c r="K63">
+        <v>1.86364330941918</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64">
+        <v>650</v>
+      </c>
+      <c r="K64">
+        <v>1.53714750183782</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65">
+        <v>660</v>
+      </c>
+      <c r="K65">
+        <v>1.0668282403443401</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66">
+        <v>670</v>
+      </c>
+      <c r="K66">
+        <v>0.59424394067044495</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67">
+        <v>680</v>
+      </c>
+      <c r="K67">
+        <v>0.26095301854779401</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68">
+        <v>690</v>
+      </c>
+      <c r="K68">
+        <v>0.17564807300502999</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69">
+        <v>700</v>
+      </c>
+      <c r="K69">
+        <v>0.269257758955459</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70">
+        <v>710</v>
+      </c>
+      <c r="K70">
+        <v>0.412896917534885</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71">
+        <v>720</v>
+      </c>
+      <c r="K71">
+        <v>0.50684400137112795</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72">
+        <v>730</v>
+      </c>
+      <c r="K72">
+        <v>0.54341955886479298</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73">
+        <v>740</v>
+      </c>
+      <c r="K73">
+        <v>0.53302882576335398</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74">
+        <v>750</v>
+      </c>
+      <c r="K74">
+        <v>0.48607703781428502</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75">
+        <v>760</v>
+      </c>
+      <c r="K75">
+        <v>0.41296943076505899</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76">
+        <v>770</v>
+      </c>
+      <c r="K76">
+        <v>0.32411124036314998</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77">
+        <v>780</v>
+      </c>
+      <c r="K77">
+        <v>0.229907702356032</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78">
+        <v>790</v>
+      </c>
+      <c r="K78">
+        <v>0.14076405249117899</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79">
+        <v>800</v>
+      </c>
+      <c r="K79">
+        <v>6.7085526516063906E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80">
+        <v>810</v>
+      </c>
+      <c r="K80">
+        <v>1.92773601781609E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81">
+        <v>820</v>
+      </c>
+      <c r="K81">
+        <v>5.2182570569509999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82">
+        <v>830</v>
+      </c>
+      <c r="K82">
+        <v>1.73326102595323E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83">
+        <v>840</v>
+      </c>
+      <c r="K83">
+        <v>4.2203444590179502E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84">
+        <v>850</v>
+      </c>
+      <c r="K84">
+        <v>6.6402885177244395E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="P1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="22"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="Q1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="U1" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
@@ -3332,28 +4681,35 @@
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="N2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="29" t="s">
+      <c r="L2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="O2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="Q2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="S2" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>24</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="23"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3362,27 +4718,42 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3">
+      <c r="L3">
+        <v>185</v>
+      </c>
+      <c r="M3" s="8">
+        <v>6.9858344763199502</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3">
         <v>670</v>
       </c>
-      <c r="O3">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
       <c r="P3">
-        <v>900</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q3">
         <v>900</v>
       </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3">
+        <f>Q3*3</f>
+        <v>2700</v>
+      </c>
+      <c r="S3" s="32">
+        <f>(PI()*Q3*0.000001)/(O3*0.000000001)</f>
+        <v>4220.0498331803183</v>
+      </c>
+      <c r="T3" s="33">
+        <f>(PI()*R3*0.000001)/(O3*0.000000001)</f>
+        <v>12660.149499540958</v>
+      </c>
+      <c r="U3" s="30">
+        <f>ATAN(435.1*0.000001/P3)</f>
+        <v>7.6333318507426184E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="9">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
@@ -3399,25 +4770,44 @@
         <f>'5-25-2012'!E$26</f>
         <v>0.34393236789259984</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4">
+      <c r="L4">
+        <v>235</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5.4962152004161497</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4">
         <f>AVERAGE(541,551)</f>
         <v>546</v>
       </c>
-      <c r="O4">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
       <c r="P4">
-        <v>900</v>
+        <f>0.57</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Q4">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4">
+        <f>Q4*3</f>
+        <v>2700</v>
+      </c>
+      <c r="S4" s="32">
+        <f>(PI()*Q4*0.000001)/(O4*0.000000001)</f>
+        <v>5178.449428994164</v>
+      </c>
+      <c r="T4" s="33">
+        <f>(PI()*R4*0.000001)/(O4*0.000000001)</f>
+        <v>15535.348286982493</v>
+      </c>
+      <c r="U4" s="30">
+        <f>ATAN(447.1*0.000001/P4)</f>
+        <v>7.8438580404488641E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="9">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
@@ -3434,8 +4824,14 @@
         <f>'5-25-2012'!F$26</f>
         <v>0.37975061068520921</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="L5">
+        <v>285</v>
+      </c>
+      <c r="M5" s="8">
+        <v>34.975031278318703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="9">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
@@ -3452,14 +4848,20 @@
         <f>'5-25-2012'!G$26</f>
         <v>0.85962047929365359</v>
       </c>
-      <c r="M6">
+      <c r="L6">
+        <v>335</v>
+      </c>
+      <c r="M6" s="8">
+        <v>23.014092284426301</v>
+      </c>
+      <c r="N6">
         <v>670</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="O6" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="9">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
@@ -3476,8 +4878,14 @@
         <f>'5-25-2012'!H$26</f>
         <v>0.96491068580410344</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="L7">
+        <v>385</v>
+      </c>
+      <c r="M7" s="8">
+        <v>51.989134581119899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="9">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
@@ -3494,11 +4902,17 @@
         <f>'5-25-2012'!I$26</f>
         <v>0.87622095266818223</v>
       </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="L8">
+        <v>435</v>
+      </c>
+      <c r="M8" s="8">
+        <v>105.009881530218</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="9">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
@@ -3515,20 +4929,26 @@
         <f>'5-25-2012'!J$26</f>
         <v>0.73305417334098399</v>
       </c>
-      <c r="M9">
+      <c r="L9">
+        <v>485</v>
+      </c>
+      <c r="M9" s="8">
+        <v>10.989732327582299</v>
+      </c>
+      <c r="N9">
         <v>5.96</v>
       </c>
-      <c r="N9" s="31">
+      <c r="O9" s="30">
         <v>523</v>
       </c>
-      <c r="O9" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="P9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="9">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
@@ -3545,20 +4965,26 @@
         <f>'5-25-2012'!K$26</f>
         <v>0.53008450584160005</v>
       </c>
-      <c r="M10">
+      <c r="L10">
+        <v>535</v>
+      </c>
+      <c r="M10" s="8">
+        <v>36.012366446538202</v>
+      </c>
+      <c r="N10">
         <v>1.512</v>
       </c>
-      <c r="N10" s="31">
+      <c r="O10" s="30">
         <v>549</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="P10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="9">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
@@ -3575,8 +5001,14 @@
         <f>'5-25-2012'!L$26</f>
         <v>1.0510020281416657</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="L11">
+        <v>585</v>
+      </c>
+      <c r="M11" s="8">
+        <v>22.9809617593558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="9">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
@@ -3593,11 +5025,17 @@
         <f>'5-25-2012'!M$26</f>
         <v>0.85061896967969697</v>
       </c>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="L12">
+        <v>635</v>
+      </c>
+      <c r="M12" s="8">
+        <v>7.0348481156140501</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="9">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
@@ -3614,11 +5052,17 @@
         <f>'5-25-2012'!N$26</f>
         <v>0.40701092704845432</v>
       </c>
-      <c r="N13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="L13">
+        <v>685</v>
+      </c>
+      <c r="M13" s="8">
+        <v>5.5119020000907</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="9">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
@@ -3635,41 +5079,67 @@
         <f>'5-25-2012'!O$26</f>
         <v>0.29267370011130506</v>
       </c>
-      <c r="N14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="L14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="22"/>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="L15">
+        <v>424</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16">
+        <v>110.6</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="L18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="37"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="23" t="s">
         <v>13</v>
       </c>
@@ -3678,14 +5148,18 @@
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="L19" t="s">
+      <c r="L19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" s="51"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -3696,14 +5170,18 @@
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="36">
         <v>185</v>
       </c>
-      <c r="M20">
-        <v>1.2845299999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="36">
+        <v>1.2845331139471801</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="9">
         <f>'5-25-2012'!R$2</f>
         <v>185</v>
@@ -3720,14 +5198,18 @@
         <f>'5-25-2012'!R$26</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="36">
         <v>235</v>
       </c>
-      <c r="M21">
-        <v>1.60362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="36">
+        <v>1.6036199095033199</v>
+      </c>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="9">
         <f>'5-25-2012'!S$2</f>
         <v>235</v>
@@ -3744,14 +5226,18 @@
         <f>'5-25-2012'!S$26</f>
         <v>0.25131234497501725</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="36">
         <v>285</v>
       </c>
-      <c r="M22">
-        <v>6.5816100000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="36">
+        <v>6.5816125051413499</v>
+      </c>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="43"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="9">
         <f>'5-25-2012'!T$2</f>
         <v>285</v>
@@ -3768,14 +5254,18 @@
         <f>'5-25-2012'!T$26</f>
         <v>0.45465429318966</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="36">
         <v>335</v>
       </c>
-      <c r="M23">
-        <v>13.9903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="36">
+        <v>13.990292060879799</v>
+      </c>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="43"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="9">
         <f>'5-25-2012'!U$2</f>
         <v>335</v>
@@ -3792,14 +5282,18 @@
         <f>'5-25-2012'!U$26</f>
         <v>0.70140835767085485</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="36">
         <v>385</v>
       </c>
-      <c r="M24">
-        <v>21.326799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="36">
+        <v>21.326779103250001</v>
+      </c>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="43"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="9">
         <f>'5-25-2012'!V$2</f>
         <v>385</v>
@@ -3816,14 +5310,18 @@
         <f>'5-25-2012'!V$26</f>
         <v>1.098084456535203</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="36">
         <v>435</v>
       </c>
-      <c r="M25">
-        <v>26.314399999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="36">
+        <v>26.314438502674498</v>
+      </c>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="43"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="9">
         <f>'5-25-2012'!W$2</f>
         <v>435</v>
@@ -3840,14 +5338,18 @@
         <f>'5-25-2012'!W$26</f>
         <v>0.73305417334098399</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="36">
         <v>485</v>
       </c>
-      <c r="M26">
-        <v>27.344999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="36">
+        <v>27.344960921431699</v>
+      </c>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="43"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="9">
         <f>'5-25-2012'!X$2</f>
         <v>485</v>
@@ -3864,14 +5366,18 @@
         <f>'5-25-2012'!X$26</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="36">
         <v>535</v>
       </c>
-      <c r="M27">
-        <v>23.861599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="36">
+        <v>23.861620732208401</v>
+      </c>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="43"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="9">
         <f>'5-25-2012'!Y$2</f>
         <v>535</v>
@@ -3888,14 +5394,18 @@
         <f>'5-25-2012'!Y$26</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="36">
         <v>585</v>
       </c>
-      <c r="M28">
-        <v>16.683700000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="36">
+        <v>16.6837104072399</v>
+      </c>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="43"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="9">
         <f>'5-25-2012'!Z$2</f>
         <v>585</v>
@@ -3912,14 +5422,18 @@
         <f>'5-25-2012'!Z$26</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="36">
         <v>635</v>
       </c>
-      <c r="M29">
-        <v>8.2721499999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="36">
+        <v>8.2721513780351792</v>
+      </c>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="42"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="9">
         <f>'5-25-2012'!AA$2</f>
         <v>635</v>
@@ -3936,14 +5450,18 @@
         <f>'5-25-2012'!AA$26</f>
         <v>0.42596639353481014</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="36">
         <v>685</v>
       </c>
-      <c r="M30">
-        <v>2.93628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="36">
+        <v>2.9362813656932398</v>
+      </c>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="9">
         <f>'5-25-2012'!AB$2</f>
         <v>685</v>
@@ -3960,12 +5478,41 @@
         <f>'5-25-2012'!AB$26</f>
         <v>0.28538985339540823</v>
       </c>
+      <c r="L31" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="46"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="L32" s="47">
+        <v>472</v>
+      </c>
+      <c r="M32" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="49">
+        <f>0.999196*27.5</f>
+        <v>27.477889999999999</v>
+      </c>
+      <c r="M33" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A19:A20"/>
@@ -3973,11 +5520,12 @@
     <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/Two Slit/Two Slit delete.xlsx
+++ b/Two Slit/Two Slit delete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="12435" windowHeight="3660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="12435" windowHeight="3660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5-25-2012" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Predicted Max (*)</t>
   </si>
   <si>
-    <t>*This took over two hours to compute</t>
-  </si>
-  <si>
     <t>The reduced signfig represent the increase uncertaincy in control break the firt manually</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">^ actually there is an small error in using geometric optics </t>
+  </si>
+  <si>
+    <t>*This took over two hours to compute &lt;-&lt;;</t>
   </si>
 </sst>
 </file>
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3564,9 +3564,10 @@
       <c r="K4">
         <v>3.3142983084356002E-2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
@@ -3596,10 +3597,10 @@
       <c r="K5">
         <v>7.45484040244088E-3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="15">
         <v>450</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3631,10 +3632,10 @@
       <c r="K6">
         <v>-5.1754964038234E-3</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="16">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3667,7 +3668,7 @@
         <v>6.1334775619396901E-3</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3699,7 +3700,7 @@
         <v>5.0359622400747803E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3731,7 +3732,7 @@
         <v>0.122411673397923</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4094,9 +4095,11 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="C23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="D23" s="10"/>
       <c r="J23">
         <v>240</v>
       </c>
@@ -4105,13 +4108,13 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>383</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="J24">
@@ -4122,13 +4125,13 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="10">
         <v>1.48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="J25">
@@ -4139,9 +4142,11 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="C26" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="D26" s="10"/>
       <c r="J26">
         <v>270</v>
       </c>
@@ -4150,13 +4155,13 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="10">
         <v>750</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="J27">
@@ -4167,13 +4172,13 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="J28">
@@ -4645,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5080,7 +5085,7 @@
         <v>0.29267370011130506</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="22"/>
       <c r="O14" t="s">
@@ -5111,7 +5116,7 @@
         <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -5120,7 +5125,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -5502,7 +5507,7 @@
     </row>
     <row r="34" spans="12:13">
       <c r="L34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
